--- a/finished_product.xlsx
+++ b/finished_product.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="90">
   <si>
     <t>Material No</t>
   </si>
@@ -28,7 +28,31 @@
     <t>86617870</t>
   </si>
   <si>
-    <t>B0580</t>
+    <t>8660607</t>
+  </si>
+  <si>
+    <t>871115607</t>
+  </si>
+  <si>
+    <t>86606356</t>
+  </si>
+  <si>
+    <t>86610728</t>
+  </si>
+  <si>
+    <t>86600773</t>
+  </si>
+  <si>
+    <t>87931854</t>
+  </si>
+  <si>
+    <t>87186997</t>
+  </si>
+  <si>
+    <t>87478904</t>
+  </si>
+  <si>
+    <t>B0589</t>
   </si>
   <si>
     <t>B0585</t>
@@ -43,10 +67,112 @@
     <t>B0587</t>
   </si>
   <si>
-    <t>B0588</t>
-  </si>
-  <si>
-    <t>5779</t>
+    <t>B0583</t>
+  </si>
+  <si>
+    <t>B0647</t>
+  </si>
+  <si>
+    <t>B0648</t>
+  </si>
+  <si>
+    <t>B0649</t>
+  </si>
+  <si>
+    <t>B0643</t>
+  </si>
+  <si>
+    <t>B0642</t>
+  </si>
+  <si>
+    <t>B0505</t>
+  </si>
+  <si>
+    <t>B0661</t>
+  </si>
+  <si>
+    <t>B0660</t>
+  </si>
+  <si>
+    <t>B0662</t>
+  </si>
+  <si>
+    <t>B0663</t>
+  </si>
+  <si>
+    <t>B08065</t>
+  </si>
+  <si>
+    <t>B08066</t>
+  </si>
+  <si>
+    <t>B08067</t>
+  </si>
+  <si>
+    <t>B08068</t>
+  </si>
+  <si>
+    <t>B0157R</t>
+  </si>
+  <si>
+    <t>B0606</t>
+  </si>
+  <si>
+    <t>B0625</t>
+  </si>
+  <si>
+    <t>B0612</t>
+  </si>
+  <si>
+    <t>B06213</t>
+  </si>
+  <si>
+    <t>B06214</t>
+  </si>
+  <si>
+    <t>B06218</t>
+  </si>
+  <si>
+    <t>B06219</t>
+  </si>
+  <si>
+    <t>B06220</t>
+  </si>
+  <si>
+    <t>B06371</t>
+  </si>
+  <si>
+    <t>B0624</t>
+  </si>
+  <si>
+    <t>B0610</t>
+  </si>
+  <si>
+    <t>B0611</t>
+  </si>
+  <si>
+    <t>B0626</t>
+  </si>
+  <si>
+    <t>B0627</t>
+  </si>
+  <si>
+    <t>B0933</t>
+  </si>
+  <si>
+    <t>B0937</t>
+  </si>
+  <si>
+    <t>B01120</t>
+  </si>
+  <si>
+    <t>B1121</t>
+  </si>
+  <si>
+    <t>B1122</t>
+  </si>
+  <si>
+    <t>5799</t>
   </si>
   <si>
     <t>9966</t>
@@ -62,6 +188,102 @@
   </si>
   <si>
     <t>10935</t>
+  </si>
+  <si>
+    <t>1970</t>
+  </si>
+  <si>
+    <t>7987</t>
+  </si>
+  <si>
+    <t>10070</t>
+  </si>
+  <si>
+    <t>26650</t>
+  </si>
+  <si>
+    <t>74250</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>36720</t>
+  </si>
+  <si>
+    <t>27490</t>
+  </si>
+  <si>
+    <t>37920</t>
+  </si>
+  <si>
+    <t>18560</t>
+  </si>
+  <si>
+    <t>37400</t>
+  </si>
+  <si>
+    <t>36960</t>
+  </si>
+  <si>
+    <t>37610</t>
+  </si>
+  <si>
+    <t>38610</t>
+  </si>
+  <si>
+    <t>4230</t>
+  </si>
+  <si>
+    <t>13920</t>
+  </si>
+  <si>
+    <t>13620</t>
+  </si>
+  <si>
+    <t>14160</t>
+  </si>
+  <si>
+    <t>13680</t>
+  </si>
+  <si>
+    <t>14460</t>
+  </si>
+  <si>
+    <t>14340</t>
+  </si>
+  <si>
+    <t>14520</t>
+  </si>
+  <si>
+    <t>14200</t>
+  </si>
+  <si>
+    <t>10680</t>
+  </si>
+  <si>
+    <t>11680</t>
+  </si>
+  <si>
+    <t>15180</t>
+  </si>
+  <si>
+    <t>33760</t>
+  </si>
+  <si>
+    <t>32800</t>
+  </si>
+  <si>
+    <t>34080</t>
+  </si>
+  <si>
+    <t>11520</t>
+  </si>
+  <si>
+    <t>52940</t>
+  </si>
+  <si>
+    <t>160000</t>
   </si>
 </sst>
 </file>
@@ -419,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,10 +663,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -452,10 +674,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -463,10 +685,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -474,10 +696,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -485,10 +707,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -496,10 +718,406 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
